--- a/public/template/template_alternatif.xlsx
+++ b/public/template/template_alternatif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SPK_MOORA_BANSOS\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAF5FA-A270-4ABE-994D-FB3C93F1EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85728B0F-95FF-4175-B8AB-897FA5620935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B2E20F1-96D9-410E-871F-5410521AA773}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Alamat</t>
   </si>
@@ -40,6 +40,51 @@
   </si>
   <si>
     <t>Periode Tahun</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>AMIR</t>
+  </si>
+  <si>
+    <t>DSN. GANTEN</t>
+  </si>
+  <si>
+    <t>ANIS DWI WULANSARI</t>
+  </si>
+  <si>
+    <t>DSN. GOTEHAN</t>
+  </si>
+  <si>
+    <t>DSN. WONOMERTO</t>
+  </si>
+  <si>
+    <t>DSN. WONOTIRTO</t>
+  </si>
+  <si>
+    <t>ARIF DWI WARSONO</t>
+  </si>
+  <si>
+    <t>ARPAH</t>
+  </si>
+  <si>
+    <t>ASIH WINARNO</t>
+  </si>
+  <si>
+    <t>BAYU MUJIANTO</t>
+  </si>
+  <si>
+    <t>BOINEM</t>
+  </si>
+  <si>
+    <t>DARNI</t>
+  </si>
+  <si>
+    <t>FERNITA ADELIA</t>
+  </si>
+  <si>
+    <t>AWANG</t>
   </si>
 </sst>
 </file>
@@ -83,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,17 +151,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,35 +499,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13114173-E5C7-495B-8C82-342F91CA80AE}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3527639862416390</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3528263810283650</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3528376152930820</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3518273625388190</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3518273517762520</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3518273625391750</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3538162418276340</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3517263419182660</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3518361829634150</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3538361836172630</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
